--- a/data/trans_orig/P13_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P13_R-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>20493</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12346</v>
+        <v>12040</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30598</v>
+        <v>30895</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04325548421110804</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02605957169111526</v>
+        <v>0.02541352778211139</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06458401892941747</v>
+        <v>0.06521091129158407</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -765,19 +765,19 @@
         <v>16017</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8876</v>
+        <v>9089</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23965</v>
+        <v>25662</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05222721763658484</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02894314295309189</v>
+        <v>0.02963816610725759</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07814450443915731</v>
+        <v>0.08367773772545845</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>35</v>
@@ -786,19 +786,19 @@
         <v>36511</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25780</v>
+        <v>26158</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>50514</v>
+        <v>50122</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04678092543700337</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03303243856789189</v>
+        <v>0.03351585836794219</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06472418249885042</v>
+        <v>0.06422086080778595</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>453283</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>443178</v>
+        <v>442881</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>461430</v>
+        <v>461736</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.956744515788892</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9354159810705825</v>
+        <v>0.9347890887084159</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9739404283088847</v>
+        <v>0.9745864722178886</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>282</v>
@@ -836,19 +836,19 @@
         <v>290663</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>282715</v>
+        <v>281018</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>297804</v>
+        <v>297591</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9477727823634151</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9218554955608427</v>
+        <v>0.9163222622745414</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.971056857046908</v>
+        <v>0.9703618338927423</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>718</v>
@@ -857,19 +857,19 @@
         <v>743946</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>729943</v>
+        <v>730335</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>754677</v>
+        <v>754299</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9532190745629966</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9352758175011503</v>
+        <v>0.9357791391922141</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9669675614321083</v>
+        <v>0.9664841416320579</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>5015</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1673</v>
+        <v>908</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14081</v>
+        <v>12373</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01366675369513279</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004558392662802805</v>
+        <v>0.002473957406358455</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03837485285864377</v>
+        <v>0.03372115148335646</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -982,19 +982,19 @@
         <v>9137</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4296</v>
+        <v>4243</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17644</v>
+        <v>16699</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02457108516737342</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01155375073013845</v>
+        <v>0.0114089437225376</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04744866495451491</v>
+        <v>0.04490730528969192</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -1003,19 +1003,19 @@
         <v>14152</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7317</v>
+        <v>7200</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24353</v>
+        <v>23668</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01915530704592056</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009903934707728393</v>
+        <v>0.009745814405316933</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03296238138498796</v>
+        <v>0.03203634949435406</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>361919</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>352853</v>
+        <v>354561</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>365261</v>
+        <v>366026</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9863332463048672</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9616251471413558</v>
+        <v>0.9662788485166431</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.995441607337197</v>
+        <v>0.9975260425936415</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>355</v>
@@ -1053,19 +1053,19 @@
         <v>362728</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>354221</v>
+        <v>355166</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>367569</v>
+        <v>367622</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9754289148326266</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9525513350454851</v>
+        <v>0.9550926947103082</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9884462492698616</v>
+        <v>0.9885910562774625</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>701</v>
@@ -1074,19 +1074,19 @@
         <v>724647</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>714446</v>
+        <v>715131</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>731482</v>
+        <v>731599</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9808446929540794</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9670376186150119</v>
+        <v>0.9679636505056459</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9900960652922715</v>
+        <v>0.9902541855946829</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>10055</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4469</v>
+        <v>4748</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17689</v>
+        <v>17726</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01853756054428195</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008240200739997972</v>
+        <v>0.008753427002943695</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03261308841268632</v>
+        <v>0.03268070178170511</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -1199,19 +1199,19 @@
         <v>12387</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6295</v>
+        <v>7080</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21231</v>
+        <v>21892</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07382650560410887</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03751745548213963</v>
+        <v>0.0421984368096437</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1265400677029697</v>
+        <v>0.1304771567121416</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -1220,19 +1220,19 @@
         <v>22441</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14056</v>
+        <v>14379</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>32728</v>
+        <v>34217</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03159988588086522</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0197923426208987</v>
+        <v>0.0202469265663487</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04608440231905785</v>
+        <v>0.04818183094105035</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>532334</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>524700</v>
+        <v>524663</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>537920</v>
+        <v>537641</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9814624394557181</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9673869115873143</v>
+        <v>0.9673192982182961</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9917597992600021</v>
+        <v>0.9912465729970565</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>153</v>
@@ -1270,19 +1270,19 @@
         <v>155395</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>146551</v>
+        <v>145890</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>161487</v>
+        <v>160702</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9261734943958911</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8734599322970298</v>
+        <v>0.8695228432878583</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9624825445178603</v>
+        <v>0.9578015631903563</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>675</v>
@@ -1291,19 +1291,19 @@
         <v>687730</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>677443</v>
+        <v>675954</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>696115</v>
+        <v>695792</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9684001141191347</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9539155976809421</v>
+        <v>0.9518181690589497</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9802076573791013</v>
+        <v>0.9797530734336513</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>44355</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>31868</v>
+        <v>31911</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>56997</v>
+        <v>58468</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03581823421010678</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02573433103078136</v>
+        <v>0.02576950326065541</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04602741069498996</v>
+        <v>0.04721496600021742</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>33</v>
@@ -1416,19 +1416,19 @@
         <v>35024</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23826</v>
+        <v>24775</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>47116</v>
+        <v>48690</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04903420854431641</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03335683689490915</v>
+        <v>0.03468565392303923</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06596242255363988</v>
+        <v>0.06816656202575903</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>77</v>
@@ -1437,19 +1437,19 @@
         <v>79379</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>64785</v>
+        <v>61701</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>100133</v>
+        <v>98541</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04065275290466187</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03317846474709452</v>
+        <v>0.03159906464667335</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0512814697557565</v>
+        <v>0.05046601898897714</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1193979</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1181337</v>
+        <v>1179866</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1206466</v>
+        <v>1206423</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9641817657898932</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9539725893050102</v>
+        <v>0.9527850339997825</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9742656689692187</v>
+        <v>0.9742304967393446</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>661</v>
@@ -1487,19 +1487,19 @@
         <v>679261</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>667169</v>
+        <v>665595</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>690459</v>
+        <v>689510</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9509657914556836</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9340375774463601</v>
+        <v>0.9318334379742409</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9666431631050909</v>
+        <v>0.9653143460769608</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1841</v>
@@ -1508,19 +1508,19 @@
         <v>1873241</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1852487</v>
+        <v>1854079</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1887835</v>
+        <v>1890919</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9593472470953381</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9487185302442435</v>
+        <v>0.9495339810110226</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9668215352529055</v>
+        <v>0.9684009353533266</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>16839</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10091</v>
+        <v>9714</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27907</v>
+        <v>26486</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04803396180090962</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02878704703205923</v>
+        <v>0.02771003969292215</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07960807764014431</v>
+        <v>0.0755548499474033</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>22</v>
@@ -1633,19 +1633,19 @@
         <v>22901</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14434</v>
+        <v>14873</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>33578</v>
+        <v>33824</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04026480358422769</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02537858506628533</v>
+        <v>0.02615017897258671</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05903727490693011</v>
+        <v>0.05947134278810733</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>38</v>
@@ -1654,19 +1654,19 @@
         <v>39739</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>28400</v>
+        <v>28802</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>52901</v>
+        <v>55021</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04322738194633022</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03089281383244737</v>
+        <v>0.03133064017619731</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05754496576818961</v>
+        <v>0.05985037175746047</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>333716</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>322648</v>
+        <v>324069</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>340464</v>
+        <v>340841</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9519660381990904</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9203919223598556</v>
+        <v>0.9244451500525966</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9712129529679407</v>
+        <v>0.9722899603070778</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>517</v>
@@ -1704,19 +1704,19 @@
         <v>545851</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>535174</v>
+        <v>534928</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>554318</v>
+        <v>553879</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9597351964157723</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9409627250930699</v>
+        <v>0.9405286572118926</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9746214149337147</v>
+        <v>0.9738498210274134</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>841</v>
@@ -1725,19 +1725,19 @@
         <v>879568</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>866406</v>
+        <v>864286</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>890907</v>
+        <v>890505</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9567726180536698</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9424550342318104</v>
+        <v>0.9401496282425394</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9691071861675525</v>
+        <v>0.9686693598238025</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>7655</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2960</v>
+        <v>3066</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15465</v>
+        <v>14974</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02566922046982908</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009925044344277186</v>
+        <v>0.010281265245581</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0518621213538166</v>
+        <v>0.0502148245903503</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>66</v>
@@ -1850,19 +1850,19 @@
         <v>68427</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>54379</v>
+        <v>53231</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>85449</v>
+        <v>85351</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05479566397857618</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04354619647932701</v>
+        <v>0.04262695932590993</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06842674935781157</v>
+        <v>0.06834855154015813</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>73</v>
@@ -1871,19 +1871,19 @@
         <v>76081</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>60357</v>
+        <v>59513</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>94705</v>
+        <v>94471</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04918109131690718</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03901647747183886</v>
+        <v>0.0384707471240831</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06122009542449436</v>
+        <v>0.06106908584244729</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>290546</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>282736</v>
+        <v>283227</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>295241</v>
+        <v>295135</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9743307795301709</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9481378786461835</v>
+        <v>0.9497851754096498</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9900749556557228</v>
+        <v>0.989718734754419</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1172</v>
@@ -1921,19 +1921,19 @@
         <v>1180333</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1163311</v>
+        <v>1163409</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1194381</v>
+        <v>1195529</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9452043360214238</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9315732506421888</v>
+        <v>0.9316514484598418</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9564538035206731</v>
+        <v>0.95737304067409</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1471</v>
@@ -1942,19 +1942,19 @@
         <v>1470879</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1452255</v>
+        <v>1452489</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1486603</v>
+        <v>1487447</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9508189086830928</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9387799045755056</v>
+        <v>0.9389309141575527</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9609835225281611</v>
+        <v>0.9615292528759171</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>104411</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>85650</v>
+        <v>85793</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>127120</v>
+        <v>128325</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03192807842161606</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02619114444432064</v>
+        <v>0.02623496485543304</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03887227072147721</v>
+        <v>0.0392408441449045</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>156</v>
@@ -2067,19 +2067,19 @@
         <v>163893</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>138793</v>
+        <v>139873</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>189145</v>
+        <v>192474</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04851587870718772</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04108573649146138</v>
+        <v>0.04140553770343594</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05599099052690937</v>
+        <v>0.05697658313569551</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>256</v>
@@ -2088,19 +2088,19 @@
         <v>268304</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>236812</v>
+        <v>234795</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>306209</v>
+        <v>305052</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04035662834129054</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03561989717196747</v>
+        <v>0.03531643249485931</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04605816882713104</v>
+        <v>0.04588408463350372</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>3165779</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3143070</v>
+        <v>3141865</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3184540</v>
+        <v>3184397</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.968071921578384</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9611277292785227</v>
+        <v>0.9607591558550955</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9738088555556795</v>
+        <v>0.973765035144567</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3140</v>
@@ -2138,19 +2138,19 @@
         <v>3214231</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3188979</v>
+        <v>3185650</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3239331</v>
+        <v>3238251</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9514841212928122</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9440090094730905</v>
+        <v>0.943023416864304</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9589142635085385</v>
+        <v>0.9585944622965641</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6247</v>
@@ -2159,19 +2159,19 @@
         <v>6380010</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6342105</v>
+        <v>6343262</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6411502</v>
+        <v>6413519</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9596433716587095</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.953941831172869</v>
+        <v>0.9541159153664963</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9643801028280325</v>
+        <v>0.9646835675051407</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>16349</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9497</v>
+        <v>9113</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27021</v>
+        <v>26616</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03747557933732141</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02176890749526629</v>
+        <v>0.02088968365727843</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06193793179400228</v>
+        <v>0.06100814524311775</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -2526,19 +2526,19 @@
         <v>11974</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5937</v>
+        <v>6712</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19169</v>
+        <v>20218</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0380781868068337</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01887933892150423</v>
+        <v>0.02134581593071147</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06096038071068199</v>
+        <v>0.0642950454864946</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -2547,19 +2547,19 @@
         <v>28323</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18939</v>
+        <v>18458</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>40893</v>
+        <v>40674</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0377279942962172</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02522781766168668</v>
+        <v>0.02458680119087518</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05447237865800053</v>
+        <v>0.05417997468084217</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>419915</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>409243</v>
+        <v>409648</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>426767</v>
+        <v>427151</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9625244206626786</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9380620682059978</v>
+        <v>0.9389918547568821</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9782310925047337</v>
+        <v>0.9791103163427214</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>271</v>
@@ -2597,19 +2597,19 @@
         <v>302480</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>295285</v>
+        <v>294236</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>308517</v>
+        <v>307742</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9619218131931663</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.939039619289318</v>
+        <v>0.9357049545135055</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9811206610784957</v>
+        <v>0.9786541840692885</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>659</v>
@@ -2618,19 +2618,19 @@
         <v>722395</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>709825</v>
+        <v>710044</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>731779</v>
+        <v>732260</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9622720057037828</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9455276213419995</v>
+        <v>0.9458200253191577</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9747721823383133</v>
+        <v>0.9754131988091248</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>17242</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10331</v>
+        <v>10408</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27281</v>
+        <v>29455</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04116940490524772</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02466896293315585</v>
+        <v>0.02485311038664227</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06514020212609624</v>
+        <v>0.07033181623268354</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -2743,19 +2743,19 @@
         <v>20093</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12724</v>
+        <v>11858</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>33181</v>
+        <v>31737</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05944593471602088</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03764516411894109</v>
+        <v>0.03508301904632138</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09816399180916126</v>
+        <v>0.09389473087582932</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>33</v>
@@ -2764,19 +2764,19 @@
         <v>37335</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>25702</v>
+        <v>26578</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>52296</v>
+        <v>53541</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04933220109563211</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03396072920999665</v>
+        <v>0.03511902060096816</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06910112552628805</v>
+        <v>0.07074566646771853</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>401555</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>391516</v>
+        <v>389342</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>408466</v>
+        <v>408389</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9588305950947523</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9348597978739041</v>
+        <v>0.9296681837673165</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9753310370668442</v>
+        <v>0.9751468896133577</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>288</v>
@@ -2814,19 +2814,19 @@
         <v>317918</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>304830</v>
+        <v>306274</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>325287</v>
+        <v>326153</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9405540652839791</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9018360081908389</v>
+        <v>0.9061052691241708</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.962354835881059</v>
+        <v>0.9649169809536786</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>647</v>
@@ -2835,19 +2835,19 @@
         <v>719473</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>704512</v>
+        <v>703267</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>731106</v>
+        <v>730230</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9506677989043679</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.930898874473712</v>
+        <v>0.9292543335322815</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9660392707900033</v>
+        <v>0.9648809793990318</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>34083</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23817</v>
+        <v>23610</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50902</v>
+        <v>51526</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05415067286818712</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03783956226099768</v>
+        <v>0.03751074491895082</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0808714049178683</v>
+        <v>0.08186307070410272</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>23</v>
@@ -2960,19 +2960,19 @@
         <v>23909</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16352</v>
+        <v>15324</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>34770</v>
+        <v>34371</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09191247810299016</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06285951473713478</v>
+        <v>0.05890732237238369</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1336630656754537</v>
+        <v>0.1321293980860458</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>53</v>
@@ -2981,19 +2981,19 @@
         <v>57992</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>43758</v>
+        <v>43995</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>74731</v>
+        <v>74762</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06519335778748463</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04919173522920921</v>
+        <v>0.04945815663458145</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08401065468654172</v>
+        <v>0.08404501023764196</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>595332</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>578513</v>
+        <v>577889</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>605598</v>
+        <v>605805</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9458493271318129</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9191285950821317</v>
+        <v>0.9181369292958973</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9621604377390023</v>
+        <v>0.9624892550810492</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>221</v>
@@ -3031,19 +3031,19 @@
         <v>236220</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>225359</v>
+        <v>225758</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>243777</v>
+        <v>244805</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9080875218970098</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8663369343245462</v>
+        <v>0.8678706019139539</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9371404852628652</v>
+        <v>0.9410926776276163</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>782</v>
@@ -3052,19 +3052,19 @@
         <v>831552</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>814813</v>
+        <v>814782</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>845786</v>
+        <v>845549</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9348066422125154</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9159893453134579</v>
+        <v>0.915954989762358</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9508082647707899</v>
+        <v>0.9505418433654186</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>59638</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>44436</v>
+        <v>46605</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>76413</v>
+        <v>76096</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05154482246333612</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03840568029608057</v>
+        <v>0.04028002691265616</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06604346892501489</v>
+        <v>0.06576964137748974</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>52</v>
@@ -3177,19 +3177,19 @@
         <v>58415</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>45237</v>
+        <v>44306</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>75602</v>
+        <v>74762</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07638952367045206</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05915581279341545</v>
+        <v>0.05793938149528037</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09886389449626498</v>
+        <v>0.09776668808305052</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>107</v>
@@ -3198,19 +3198,19 @@
         <v>118053</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>95278</v>
+        <v>98419</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>143075</v>
+        <v>142147</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06143120127523088</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04957984754800272</v>
+        <v>0.05121393259705243</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07445167901740431</v>
+        <v>0.07396854519911289</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>1097376</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1080601</v>
+        <v>1080918</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1112578</v>
+        <v>1110409</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9484551775366639</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9339565310749851</v>
+        <v>0.9342303586225105</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9615943197039196</v>
+        <v>0.9597199730873438</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>657</v>
@@ -3248,19 +3248,19 @@
         <v>706288</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>689101</v>
+        <v>689941</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>719466</v>
+        <v>720397</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.923610476329548</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9011361055037351</v>
+        <v>0.9022333119169494</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9408441872065846</v>
+        <v>0.9420606185047197</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1683</v>
@@ -3269,19 +3269,19 @@
         <v>1803664</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1778642</v>
+        <v>1779570</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1826439</v>
+        <v>1823298</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9385687987247692</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9255483209825958</v>
+        <v>0.9260314548008872</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9504201524519975</v>
+        <v>0.9487860674029477</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>19232</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11874</v>
+        <v>12039</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29749</v>
+        <v>28778</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03766643961450204</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02325525162814368</v>
+        <v>0.02357765368687351</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05826232339167869</v>
+        <v>0.05636139456835493</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>87</v>
@@ -3394,19 +3394,19 @@
         <v>94131</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>76142</v>
+        <v>76995</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>113228</v>
+        <v>112106</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1236094466861992</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09998660880307961</v>
+        <v>0.1011064868936512</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1486870620855008</v>
+        <v>0.1472130460686943</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>106</v>
@@ -3415,19 +3415,19 @@
         <v>113364</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>93715</v>
+        <v>93626</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>135586</v>
+        <v>133974</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08911407722961955</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07366865521059526</v>
+        <v>0.07359829579287722</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1065828394357243</v>
+        <v>0.1053158182876914</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>491364</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>480847</v>
+        <v>481818</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>498722</v>
+        <v>498557</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.962333560385498</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9417376766083212</v>
+        <v>0.943638605431645</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9767447483718562</v>
+        <v>0.9764223463131265</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>616</v>
@@ -3465,19 +3465,19 @@
         <v>667391</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>648294</v>
+        <v>649416</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>685380</v>
+        <v>684527</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8763905533138008</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8513129379144992</v>
+        <v>0.8527869539313054</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9000133911969205</v>
+        <v>0.8988935131063487</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1084</v>
@@ -3486,19 +3486,19 @@
         <v>1158754</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1136532</v>
+        <v>1138144</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1178403</v>
+        <v>1178492</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9108859227703805</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8934171605642757</v>
+        <v>0.8946841817123087</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9263313447894047</v>
+        <v>0.9264017042071229</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>12396</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6428</v>
+        <v>6195</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21937</v>
+        <v>21886</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04644785167488474</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02408681883845834</v>
+        <v>0.02321409514057701</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0821967155933673</v>
+        <v>0.08200654041382276</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>114</v>
@@ -3611,19 +3611,19 @@
         <v>122013</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>102584</v>
+        <v>101410</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>147390</v>
+        <v>142805</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1100948812553752</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09256406295007603</v>
+        <v>0.09150414178016883</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1329928933980646</v>
+        <v>0.1288553964496808</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>125</v>
@@ -3632,19 +3632,19 @@
         <v>134409</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>115085</v>
+        <v>112898</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>158842</v>
+        <v>157924</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09774246763550273</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08368975943649971</v>
+        <v>0.08209931311677582</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1155099004789425</v>
+        <v>0.1148423292147717</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>254486</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>244945</v>
+        <v>244996</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>260454</v>
+        <v>260687</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9535521483251153</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9178032844066327</v>
+        <v>0.9179934595861775</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9759131811615417</v>
+        <v>0.9767859048594233</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>929</v>
@@ -3682,19 +3682,19 @@
         <v>986241</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>960864</v>
+        <v>965449</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1005670</v>
+        <v>1006844</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8899051187446247</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8670071066019354</v>
+        <v>0.8711446035503193</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.907435937049924</v>
+        <v>0.9084958582198315</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1183</v>
@@ -3703,19 +3703,19 @@
         <v>1240727</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1216294</v>
+        <v>1217212</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1260051</v>
+        <v>1262238</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9022575323644972</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8844900995210573</v>
+        <v>0.8851576707852283</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9163102405635003</v>
+        <v>0.917900686883224</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>158941</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>135290</v>
+        <v>135288</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>189200</v>
+        <v>184118</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04648789422361651</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03957035226036682</v>
+        <v>0.03956972520013811</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05533847860231091</v>
+        <v>0.05385195884905356</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>305</v>
@@ -3828,19 +3828,19 @@
         <v>330536</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>298469</v>
+        <v>293789</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>367331</v>
+        <v>364296</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09318556337289635</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08414526804559286</v>
+        <v>0.08282572758783456</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1035589195339477</v>
+        <v>0.1027032967718866</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>451</v>
@@ -3849,19 +3849,19 @@
         <v>489477</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>448383</v>
+        <v>447270</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>535979</v>
+        <v>539007</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07026611481891035</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06436694430408152</v>
+        <v>0.06420727067304431</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.076941739285179</v>
+        <v>0.07737637717079501</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>3260026</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3229767</v>
+        <v>3234849</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3283677</v>
+        <v>3283679</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9535121057763835</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9446615213976891</v>
+        <v>0.9461480411509471</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9604296477396332</v>
+        <v>0.960430274799862</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2982</v>
@@ -3899,19 +3899,19 @@
         <v>3216537</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3179742</v>
+        <v>3182777</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3248604</v>
+        <v>3253284</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9068144366271037</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8964410804660523</v>
+        <v>0.8972967032281135</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9158547319544073</v>
+        <v>0.9171742724121655</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6038</v>
@@ -3920,19 +3920,19 @@
         <v>6476563</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6430061</v>
+        <v>6427033</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6517657</v>
+        <v>6518770</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9297338851810897</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.923058260714821</v>
+        <v>0.9226236228292051</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9356330556959185</v>
+        <v>0.9357927293269557</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>15388</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8937</v>
+        <v>9067</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25243</v>
+        <v>25494</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03594216752864354</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02087410785504979</v>
+        <v>0.02117852851469853</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05896336439881009</v>
+        <v>0.05954886459334965</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -4287,19 +4287,19 @@
         <v>14615</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7933</v>
+        <v>8557</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24022</v>
+        <v>25209</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04233832020495302</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02298081759451054</v>
+        <v>0.02479000342608556</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06959006987255807</v>
+        <v>0.07303077249568031</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -4308,19 +4308,19 @@
         <v>30002</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20050</v>
+        <v>19593</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42904</v>
+        <v>42192</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0387972701301405</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02592708677069127</v>
+        <v>0.02533720096942246</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05548095741236455</v>
+        <v>0.05456087323686524</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>412731</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>402876</v>
+        <v>402625</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>419182</v>
+        <v>419052</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9640578324713565</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9410366356011899</v>
+        <v>0.9404511354066504</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9791258921449503</v>
+        <v>0.9788214714853015</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>317</v>
@@ -4358,19 +4358,19 @@
         <v>330572</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>321165</v>
+        <v>319978</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>337254</v>
+        <v>336630</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.957661679795047</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.930409930127442</v>
+        <v>0.9269692275043198</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9770191824054896</v>
+        <v>0.9752099965739145</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>698</v>
@@ -4379,19 +4379,19 @@
         <v>743305</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>730403</v>
+        <v>731115</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>753257</v>
+        <v>753714</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9612027298698594</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9445190425876352</v>
+        <v>0.9454391267631337</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9740729132293082</v>
+        <v>0.9746627990305775</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>11100</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5868</v>
+        <v>6023</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19469</v>
+        <v>19940</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02942419224295867</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01555480526112807</v>
+        <v>0.01596729173489578</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05161020486915831</v>
+        <v>0.05285812084602909</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -4504,19 +4504,19 @@
         <v>7842</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3232</v>
+        <v>3342</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14733</v>
+        <v>15358</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02106623246516611</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.008681301517300712</v>
+        <v>0.008978480472473136</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03957489152224722</v>
+        <v>0.0412551814298503</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -4525,19 +4525,19 @@
         <v>18942</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11758</v>
+        <v>12258</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29111</v>
+        <v>30372</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02527283278954181</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01568740447444292</v>
+        <v>0.0163550020950207</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03884107440984073</v>
+        <v>0.04052338203417719</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>366127</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>357758</v>
+        <v>357287</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>371359</v>
+        <v>371204</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9705758077570413</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9483897951308415</v>
+        <v>0.9471418791539709</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9844451947388719</v>
+        <v>0.9840327082651043</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>345</v>
@@ -4575,19 +4575,19 @@
         <v>364431</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>357540</v>
+        <v>356915</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>369041</v>
+        <v>368931</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9789337675348339</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9604251084777529</v>
+        <v>0.9587448185701497</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9913186984826993</v>
+        <v>0.9910215195275269</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>688</v>
@@ -4596,19 +4596,19 @@
         <v>730558</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>720389</v>
+        <v>719128</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>737742</v>
+        <v>737242</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9747271672104582</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9611589255901595</v>
+        <v>0.9594766179658223</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9843125955255571</v>
+        <v>0.9836449979049792</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>21244</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13043</v>
+        <v>13189</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33382</v>
+        <v>32956</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04070360949033228</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02499025554027457</v>
+        <v>0.02527030165644182</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06396045719296439</v>
+        <v>0.06314466102192917</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -4721,19 +4721,19 @@
         <v>14956</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8595</v>
+        <v>8237</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23789</v>
+        <v>24461</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09002832771431449</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05173726953793568</v>
+        <v>0.04958356884570886</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1431995464766948</v>
+        <v>0.1472440691006372</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>32</v>
@@ -4742,19 +4742,19 @@
         <v>36200</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25225</v>
+        <v>26024</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>50076</v>
+        <v>51015</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05261280408322973</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03666193983490995</v>
+        <v>0.03782425608059663</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07278067580628884</v>
+        <v>0.07414547936991588</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>500670</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>488532</v>
+        <v>488958</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>508871</v>
+        <v>508725</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9592963905096678</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9360395428070352</v>
+        <v>0.9368553389780711</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9750097444597253</v>
+        <v>0.9747296983435583</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>140</v>
@@ -4792,19 +4792,19 @@
         <v>151167</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>142334</v>
+        <v>141662</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>157528</v>
+        <v>157886</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9099716722856855</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8568004535233052</v>
+        <v>0.8527559308993622</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9482627304620643</v>
+        <v>0.9504164311542902</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>623</v>
@@ -4813,19 +4813,19 @@
         <v>651836</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>637960</v>
+        <v>637021</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>662811</v>
+        <v>662012</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9473871959167702</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9272193241937111</v>
+        <v>0.9258545206300842</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9633380601650902</v>
+        <v>0.9621757439194033</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>38015</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>28309</v>
+        <v>25947</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>53984</v>
+        <v>53057</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03306726444928831</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02462420588398096</v>
+        <v>0.02256991119019748</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04695738741178318</v>
+        <v>0.04615124866657797</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>45</v>
@@ -4938,19 +4938,19 @@
         <v>51221</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>38164</v>
+        <v>37966</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>66773</v>
+        <v>66930</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.062163540779047</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04631687953545631</v>
+        <v>0.04607705001938775</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08103763180628029</v>
+        <v>0.0812286023545124</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>80</v>
@@ -4959,19 +4959,19 @@
         <v>89237</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>70906</v>
+        <v>73144</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>109595</v>
+        <v>114150</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0452148463524748</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03592703304508377</v>
+        <v>0.03706073647496478</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05553027941842559</v>
+        <v>0.05783825463576813</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>1111623</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1095654</v>
+        <v>1096581</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1121329</v>
+        <v>1123691</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9669327355507117</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9530426125882175</v>
+        <v>0.9538487513334222</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.975375794116019</v>
+        <v>0.9774300888098025</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>751</v>
@@ -5009,19 +5009,19 @@
         <v>772755</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>757203</v>
+        <v>757046</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>785812</v>
+        <v>786010</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.937836459220953</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9189623681937197</v>
+        <v>0.9187713976454874</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9536831204645436</v>
+        <v>0.9539229499806121</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1819</v>
@@ -5030,19 +5030,19 @@
         <v>1884378</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1864020</v>
+        <v>1859465</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1902709</v>
+        <v>1900471</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9547851536475253</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9444697205815744</v>
+        <v>0.9421617453642325</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9640729669549162</v>
+        <v>0.9629392635250353</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>29952</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21134</v>
+        <v>21080</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>41785</v>
+        <v>42363</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04825422780890699</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03404873306209168</v>
+        <v>0.03396052952613389</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06731905227366496</v>
+        <v>0.06824957282172246</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>43</v>
@@ -5155,19 +5155,19 @@
         <v>47420</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>34795</v>
+        <v>35172</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>62688</v>
+        <v>62555</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06423398798630602</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04713274317880243</v>
+        <v>0.04764303093819107</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08491498072393655</v>
+        <v>0.08473514328048407</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>74</v>
@@ -5176,19 +5176,19 @@
         <v>77372</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>62919</v>
+        <v>61744</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>98273</v>
+        <v>98654</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05693516828011367</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04629950213287728</v>
+        <v>0.04543507948465435</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07231564530859785</v>
+        <v>0.07259609582054082</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>590754</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>578921</v>
+        <v>578343</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>599572</v>
+        <v>599626</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.951745772191093</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.932680947726335</v>
+        <v>0.9317504271782775</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9659512669379083</v>
+        <v>0.9660394704738661</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>656</v>
@@ -5226,19 +5226,19 @@
         <v>690824</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>675556</v>
+        <v>675689</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>703449</v>
+        <v>703072</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.935766012013694</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9150850192760633</v>
+        <v>0.9152648567195159</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9528672568211976</v>
+        <v>0.9523569690618089</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1222</v>
@@ -5247,19 +5247,19 @@
         <v>1281578</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1260677</v>
+        <v>1260296</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1296031</v>
+        <v>1297206</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9430648317198863</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9276843546914022</v>
+        <v>0.9274039041794593</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9537004978671227</v>
+        <v>0.9545649205153457</v>
       </c>
     </row>
     <row r="18">
@@ -5354,7 +5354,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5835</v>
+        <v>5761</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.006557707371481593</v>
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02032013766816036</v>
+        <v>0.0200627083608694</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>51</v>
@@ -5372,19 +5372,19 @@
         <v>59626</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>46377</v>
+        <v>44663</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>76818</v>
+        <v>75249</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05517053941939665</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04291203556537426</v>
+        <v>0.04132540451657212</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07107857461386685</v>
+        <v>0.06962627452017099</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>53</v>
@@ -5393,19 +5393,19 @@
         <v>61509</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>45893</v>
+        <v>45352</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>79102</v>
+        <v>78162</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0449658828090815</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03354971287398947</v>
+        <v>0.03315473196774292</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05782729109434281</v>
+        <v>0.05714011939066103</v>
       </c>
     </row>
     <row r="20">
@@ -5422,7 +5422,7 @@
         <v>285262</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>281310</v>
+        <v>281384</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>287145</v>
@@ -5431,7 +5431,7 @@
         <v>0.9934422926285184</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9796798623318422</v>
+        <v>0.9799372916391306</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -5443,19 +5443,19 @@
         <v>1021128</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1003936</v>
+        <v>1005505</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1034377</v>
+        <v>1036091</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9448294605806034</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9289214253861325</v>
+        <v>0.9303737254798289</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9570879644346256</v>
+        <v>0.9586745954834277</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1210</v>
@@ -5464,19 +5464,19 @@
         <v>1306390</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1288797</v>
+        <v>1289737</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1322006</v>
+        <v>1322547</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9550341171909185</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9421727089056572</v>
+        <v>0.9428598806093389</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9664502871260103</v>
+        <v>0.966845268032257</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>117581</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>97079</v>
+        <v>96613</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>142465</v>
+        <v>139623</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03473846544149266</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02868125366067518</v>
+        <v>0.02854371435805248</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04209018512379285</v>
+        <v>0.04125061180334452</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>172</v>
@@ -5589,19 +5589,19 @@
         <v>195680</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>169528</v>
+        <v>167446</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>225174</v>
+        <v>226931</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05548760196991027</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04807176311285381</v>
+        <v>0.04748152909102229</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06385085309058985</v>
+        <v>0.06434905779840826</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>284</v>
@@ -5610,19 +5610,19 @@
         <v>313261</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>276795</v>
+        <v>280031</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>348479</v>
+        <v>347577</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04532590196668953</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04004958169037871</v>
+        <v>0.04051782528932424</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05042155880110411</v>
+        <v>0.05029108728607973</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>3267168</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3242284</v>
+        <v>3245126</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3287670</v>
+        <v>3288136</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9652615345585074</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9579098148762077</v>
+        <v>0.9587493881966553</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9713187463393248</v>
+        <v>0.9714562856419475</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3149</v>
@@ -5660,19 +5660,19 @@
         <v>3330877</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3301383</v>
+        <v>3299626</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3357029</v>
+        <v>3359111</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9445123980300897</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9361491469094101</v>
+        <v>0.9356509422015914</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9519282368871461</v>
+        <v>0.9525184709089777</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6260</v>
@@ -5681,19 +5681,19 @@
         <v>6598046</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6562828</v>
+        <v>6563730</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6634512</v>
+        <v>6631276</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9546740980333105</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9495784411988958</v>
+        <v>0.9497089127139202</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9599504183096212</v>
+        <v>0.9594821747106757</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>24335</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16142</v>
+        <v>15698</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36204</v>
+        <v>35485</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04419541259293954</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02931572025978972</v>
+        <v>0.02850946938135129</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06575184267783808</v>
+        <v>0.06444649611897611</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>31</v>
@@ -6048,19 +6048,19 @@
         <v>19992</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13685</v>
+        <v>14388</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27385</v>
+        <v>28051</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.04093256144194962</v>
+        <v>0.04093256144194961</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02801897509914848</v>
+        <v>0.02945868326636818</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05606893573196758</v>
+        <v>0.05743251643189051</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>58</v>
@@ -6069,19 +6069,19 @@
         <v>44327</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>33529</v>
+        <v>34088</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>57856</v>
+        <v>57743</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.04266166157368042</v>
+        <v>0.0426616615736804</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03226913220194067</v>
+        <v>0.03280782380463338</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05568245819071379</v>
+        <v>0.05557399172151973</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>526283</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>514414</v>
+        <v>515133</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>534476</v>
+        <v>534920</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9558045874070604</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9342481573221616</v>
+        <v>0.9355535038810239</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.97068427974021</v>
+        <v>0.9714905306186488</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>655</v>
@@ -6119,19 +6119,19 @@
         <v>468419</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>461026</v>
+        <v>460360</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>474726</v>
+        <v>474023</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9590674385580503</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9439310642680324</v>
+        <v>0.9425674835681095</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9719810249008515</v>
+        <v>0.9705413167336318</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1182</v>
@@ -6140,19 +6140,19 @@
         <v>994702</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>981173</v>
+        <v>981286</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1005500</v>
+        <v>1004941</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9573383384263198</v>
+        <v>0.9573383384263195</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9443175418092863</v>
+        <v>0.9444260082784803</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9677308677980593</v>
+        <v>0.9671921761953665</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>16053</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10164</v>
+        <v>10204</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26154</v>
+        <v>25001</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.03322237731108381</v>
+        <v>0.0332223773110838</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02103511681495137</v>
+        <v>0.02111790023120606</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05412517738914371</v>
+        <v>0.05173938411245178</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>28</v>
@@ -6265,19 +6265,19 @@
         <v>18750</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12692</v>
+        <v>12655</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26816</v>
+        <v>27125</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04431179563021972</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02999422591826782</v>
+        <v>0.02990784942903615</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06337221129989186</v>
+        <v>0.06410410218283903</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>47</v>
@@ -6286,19 +6286,19 @@
         <v>34804</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>26203</v>
+        <v>24871</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>46900</v>
+        <v>46178</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03839960710814483</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02891073592159262</v>
+        <v>0.02744049943104459</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05174580411636347</v>
+        <v>0.05094927113857008</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>467159</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>457058</v>
+        <v>458211</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>473048</v>
+        <v>473008</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9667776226889162</v>
+        <v>0.9667776226889161</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9458748226108563</v>
+        <v>0.9482606158875482</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9789648831850485</v>
+        <v>0.9788820997687939</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>562</v>
@@ -6336,19 +6336,19 @@
         <v>404393</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>396327</v>
+        <v>396018</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>410451</v>
+        <v>410488</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9556882043697802</v>
+        <v>0.9556882043697803</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.936627788700109</v>
+        <v>0.935895897817161</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9700057740817324</v>
+        <v>0.9700921505709642</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1024</v>
@@ -6357,19 +6357,19 @@
         <v>871551</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>859455</v>
+        <v>860177</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>880152</v>
+        <v>881484</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9616003928918552</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9482541958836366</v>
+        <v>0.9490507288614302</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9710892640784075</v>
+        <v>0.9725595005689555</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>25378</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16699</v>
+        <v>16890</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38235</v>
+        <v>38885</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05391823776093109</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03547824312534061</v>
+        <v>0.0358845516513738</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08123343798000314</v>
+        <v>0.0826156337616766</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>31</v>
@@ -6482,19 +6482,19 @@
         <v>19742</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13576</v>
+        <v>13727</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26912</v>
+        <v>27892</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.105562848974636</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07259123559053315</v>
+        <v>0.07339961620035458</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1438995857185912</v>
+        <v>0.1491403378975255</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>58</v>
@@ -6503,19 +6503,19 @@
         <v>45120</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>34629</v>
+        <v>35394</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>59341</v>
+        <v>59315</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06860357058164328</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05265258712822701</v>
+        <v>0.05381532437878941</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09022565697065293</v>
+        <v>0.09018635879753188</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>445299</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>432442</v>
+        <v>431792</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>453978</v>
+        <v>453787</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9460817622390688</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.918766562019997</v>
+        <v>0.9173843662383235</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9645217568746595</v>
+        <v>0.9641154483486262</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>257</v>
@@ -6553,19 +6553,19 @@
         <v>167276</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>160106</v>
+        <v>159126</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>173442</v>
+        <v>173291</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8944371510253638</v>
+        <v>0.8944371510253639</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8561004142814088</v>
+        <v>0.8508596621024745</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9274087644094667</v>
+        <v>0.9266003837996454</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>717</v>
@@ -6574,19 +6574,19 @@
         <v>612575</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>598354</v>
+        <v>598380</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>623066</v>
+        <v>622301</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9313964294183567</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.909774343029347</v>
+        <v>0.9098136412024683</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9473474128717729</v>
+        <v>0.9461846756212106</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>74718</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>59739</v>
+        <v>60244</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>96257</v>
+        <v>95354</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06601482099000751</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05278011051575595</v>
+        <v>0.05322632944018412</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08504437890539833</v>
+        <v>0.08424693532609258</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>82</v>
@@ -6699,19 +6699,19 @@
         <v>53873</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>42957</v>
+        <v>42232</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>66558</v>
+        <v>65961</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06255513188039818</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04987980350313344</v>
+        <v>0.04903755328834845</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07728378337431195</v>
+        <v>0.0765905973575217</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>165</v>
@@ -6720,19 +6720,19 @@
         <v>128592</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>109937</v>
+        <v>109396</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>152941</v>
+        <v>150138</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.06451986728357567</v>
+        <v>0.06451986728357569</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05515986679076434</v>
+        <v>0.05488863964777132</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07673687701373037</v>
+        <v>0.07533062411846358</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>1057125</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1035586</v>
+        <v>1036489</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1072104</v>
+        <v>1071599</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9339851790099925</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9149556210946015</v>
+        <v>0.9157530646739069</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9472198894842441</v>
+        <v>0.9467736705598158</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1148</v>
@@ -6770,19 +6770,19 @@
         <v>807338</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>794653</v>
+        <v>795250</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>818254</v>
+        <v>818979</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9374448681196019</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9227162166256881</v>
+        <v>0.9234094026424782</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9501201964968666</v>
+        <v>0.9509624467116515</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2183</v>
@@ -6791,19 +6791,19 @@
         <v>1864462</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1840113</v>
+        <v>1842916</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1883117</v>
+        <v>1883658</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9354801327164243</v>
+        <v>0.9354801327164245</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.92326312298627</v>
+        <v>0.9246693758815363</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9448401332092357</v>
+        <v>0.9451113603522285</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>36888</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>27185</v>
+        <v>26262</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>50244</v>
+        <v>50380</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06518571962300714</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04803840319340467</v>
+        <v>0.04640855007023219</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08878774934689834</v>
+        <v>0.08902769366057532</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>152</v>
@@ -6916,19 +6916,19 @@
         <v>83394</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>71684</v>
+        <v>70021</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>97948</v>
+        <v>96771</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1006172522982587</v>
+        <v>0.1006172522982586</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08648789718086994</v>
+        <v>0.08448147800460434</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1181762579353352</v>
+        <v>0.1167559726743476</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>195</v>
@@ -6937,19 +6937,19 @@
         <v>120283</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>102223</v>
+        <v>103390</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>138745</v>
+        <v>138233</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.08624131069124348</v>
+        <v>0.08624131069124349</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07329272101448399</v>
+        <v>0.07412920283653779</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09947830974117051</v>
+        <v>0.09911139404049511</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>529004</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>515648</v>
+        <v>515512</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>538707</v>
+        <v>539630</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9348142803769927</v>
+        <v>0.9348142803769929</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9112122506531017</v>
+        <v>0.9109723063394247</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9519615968065953</v>
+        <v>0.9535914499297679</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1135</v>
@@ -6987,19 +6987,19 @@
         <v>745435</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>730881</v>
+        <v>732058</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>757145</v>
+        <v>758808</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8993827477017415</v>
+        <v>0.8993827477017413</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8818237420646646</v>
+        <v>0.8832440273256522</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9135121028191301</v>
+        <v>0.9155185219953955</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1637</v>
@@ -7008,19 +7008,19 @@
         <v>1274439</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1255977</v>
+        <v>1256489</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1292499</v>
+        <v>1291332</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9137586893087565</v>
+        <v>0.9137586893087567</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9005216902588292</v>
+        <v>0.9008886059595047</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.926707278985516</v>
+        <v>0.9258707971634621</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>4361</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1644</v>
+        <v>1700</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9982</v>
+        <v>9480</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01838217414998352</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006931290865161376</v>
+        <v>0.007166631329345921</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04207712581008674</v>
+        <v>0.03996094244222356</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>127</v>
@@ -7133,19 +7133,19 @@
         <v>74231</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>61125</v>
+        <v>62048</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>87974</v>
+        <v>87500</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08817321234104947</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07260602864463765</v>
+        <v>0.07370152535049464</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1044976889893882</v>
+        <v>0.103933768719897</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>133</v>
@@ -7154,19 +7154,19 @@
         <v>78592</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>65158</v>
+        <v>66316</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>93543</v>
+        <v>93822</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07283053509418091</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06038131104212748</v>
+        <v>0.06145417722611927</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08668575557375791</v>
+        <v>0.08694394143363794</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>232867</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>227246</v>
+        <v>227748</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>235584</v>
+        <v>235528</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9816178258500164</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9579228741899128</v>
+        <v>0.9600390575577763</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9930687091348385</v>
+        <v>0.992833368670654</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1027</v>
@@ -7204,19 +7204,19 @@
         <v>767647</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>753904</v>
+        <v>754378</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>780753</v>
+        <v>779830</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9118267876589504</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8955023110106117</v>
+        <v>0.896066231280103</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9273939713553619</v>
+        <v>0.9262984746495054</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1133</v>
@@ -7225,19 +7225,19 @@
         <v>1000513</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>985562</v>
+        <v>985283</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1013947</v>
+        <v>1012789</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9271694649058192</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9133142444262422</v>
+        <v>0.9130560585663619</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9396186889578725</v>
+        <v>0.9385458227738809</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>181734</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>158938</v>
+        <v>157038</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>211017</v>
+        <v>209789</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05283767125090718</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04621011660333956</v>
+        <v>0.04565746392182452</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06135155476650966</v>
+        <v>0.06099459358097589</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>451</v>
@@ -7350,19 +7350,19 @@
         <v>269983</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>245820</v>
+        <v>245708</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>295846</v>
+        <v>297850</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07436545982982148</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0677097385128354</v>
+        <v>0.06767889428492682</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08148938296429907</v>
+        <v>0.0820412288154057</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>656</v>
@@ -7371,19 +7371,19 @@
         <v>451717</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>414004</v>
+        <v>417571</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>488496</v>
+        <v>487950</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06389238950982845</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05855821243928185</v>
+        <v>0.05906263188398563</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06909459764026528</v>
+        <v>0.06901737442838859</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>3257737</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3228454</v>
+        <v>3229682</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3280533</v>
+        <v>3282433</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9471623287490928</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9386484452334906</v>
+        <v>0.9390054064190241</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9537898833966605</v>
+        <v>0.9543425360781754</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4784</v>
@@ -7421,19 +7421,19 @@
         <v>3360507</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3334644</v>
+        <v>3332640</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3384670</v>
+        <v>3384782</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9256345401701783</v>
+        <v>0.9256345401701784</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.918510617035701</v>
+        <v>0.9179587711845942</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9322902614871647</v>
+        <v>0.9323211057150729</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7876</v>
@@ -7442,19 +7442,19 @@
         <v>6618244</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6581465</v>
+        <v>6582011</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6655957</v>
+        <v>6652390</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9361076104901715</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9309054023597347</v>
+        <v>0.930982625571611</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9414417875607183</v>
+        <v>0.9409373681160142</v>
       </c>
     </row>
     <row r="24">
